--- a/INF032-Codes/dados_resumos.xlsx
+++ b/INF032-Codes/dados_resumos.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,20 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="2">
@@ -55,10 +62,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,444 +448,457 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>CLIENTE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>DATA E HORA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>ÓRGÃO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>OBJETO</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>MODALIDADE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>MODO DE DISPUTA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>CRITÉRIO DE JULGAMENTO</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>FIM DO ACOLHIMENTO DE PROPOSTA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>SISTEMA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>VALOR REFERENCIAL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>DELTA</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>08/08/2025 09:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>CRISTALINA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA PRESTAÇÃO DE SERVIÇOS DE RECEBIMENTO E DISPOSIÇÃO FINAL DE RESÍDUOS SÓLIDOS URBANOS, DESTINADO A ATENDER AS NECESSIDADES DO MUNICÍPIO DE CRISTALINA.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>PREGÃO ELETRÔNICO N° 023/2025</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>ABERTO</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>MENOR PREÇO GLOBAL</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>08/08/2025 09:00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>COMPRAS PUBLICAS</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>R$ 710.705,00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>CIA FLORA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>08/08 AS 9:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>JACAREI – SP</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>REGISTRO DE PREÇO PARA CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE ROÇADA, CAPINA, PODA, FORNECIMENTO E PLANTIO DE GRAMAS EM PLACAS E LIMPEZA GERAL DAS ÁREAS COM COLETA, TRANSPORTE E DESTINAÇÃO FINAL CORRETA E ADEQUADA DOS RESÍDUOS PROVENIENTES DESTES SERVIÇOS, COM FORNECIMENTO DE MÃO-DE-OBRA, FERRAMENTAS, INSUMOS E EQUIPAMENTOS NECESSÁRIOS À EXECUÇÃO DOS SERVIÇOS, DECORRENTE DA SOLICITAÇÃO DE REGISTRO (SR) 067/2025, CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS DESTE EDITAL E ANEXOS.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>PREGÃO ELETRÔNICO Nº 038/2025 (UASG 926641)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>ABERTO E FECHADO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>MENOR PREÇO GLOBAL</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>08/08 AS 9:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>COMPRAS.GOV</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>R$ 2.629.506,35</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>MALI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>08/08/2025 09:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>MUNICIPIO DE TUCANO</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>AQUISIÇÃO DE GÊNEROS ALIMENTÍCIOS COM ENTREGA DIÁRIA PARA ATENDER AS DIVERSAS SECRETARIAS DO MUNICÍPIO DE TUCANO.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>PREGÃO ELETRÔNICO SRP Nº 036/2025</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>ABERTO E FECHADO</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>MENOR PREÇO POR LOTE</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>07/08/2025 09:00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>BLL</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>R$ 8.300.212,49</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>QUAD</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>08/08/2025 09:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>PREFEITURA MUNICIPAL DA BARRA - BAHIA</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA ESPECIALIZADA PARA A PRESTAÇÃO DE SERVIÇOS CONTÍNUOS DE REFORMA PREVENTIVA E CORRETIVA EM PRÉDIOS PÚBLICOS PERTENCENTES ÀS DIVERSAS SECRETARIAS MUNICIPAIS DESTE MUNICÍPIO, BEM COMO PARA A MANUTENÇÃO E RECUPERAÇÃO DA INFRAESTRUTURA URBANA E DE VIAS PÚBLICAS, TANTO NA SEDE QUANTO NA ZONA RURAL DO MUNICÍPIO DE BARRA/BA.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>CONCORRÊNCIA ELETRÔNICA Nº 003/2025</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>FECHADO E ABERTO</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>MENOR PREÇO POR LOTE</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>07/08/2025 09:00</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>BNC</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>SIGILOSO</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>GENIARQ</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>05/08/2025 09:30</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>FUNDO MUNICIPAL DE ASSISTÊNCIA SOCIAL DE SÃO VICENTE FÉRRER – PE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>REFORMA DE ÁREA DESATIVADA UNIDADE DE SAÚDE NINA LEITÃO PARA INSTALAÇÃO DA COZINHA COMUNITÁRIA, CENTRO ADMINISTRATIVO E ESPAÇO PARA SERVIÇO DE CONVIVENCIA E FORTALEMENTO DE VINCULOS PARA PESSOA IDOSA NO SITIO CHÃ DO ESQUECIDO, ZONA RURAL DO MUNICIPIO DE SÃO VICENTE FERRER-PE, CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS ESTABELECIDAS NESTE EDITAL E SEUS ANEXOS.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>CONCORRÊNCIA Nº 03/2025</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>ABERTO E FECHADO</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>MENOR PREÇO GLOBAL</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>05/08/2025 09:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>BNC</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>R$ 239.357,0100</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>LOCFORT</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>06/08/2025 08:30 *MODIFICADA*</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>MUNICÍPIO DE POÇÕES-BA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>CONTRATAÇÃO DE SERVIÇOS DE COLETA, TRANSPORTE DE RESÍDUOS SÓLIDOS URBANOS DO MUNICÍPIO COMPREENDENDO TODA LIMPEZA PÚBLICA DO MUNICÍPIO.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>PREGÃO ELETRÔNICO Nº 022/2025</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>ABERTO E FECHADO</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>MENOR PREÇO GLOBAL</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>08/07/2025 08:15</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>BLL</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>R$ 4.775.624,64</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>DELTA</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>11/08 AS 8:00</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>MUNICÍPIO DE JAGUARARI/BA</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE LIMPEZA PÚBLICA E COLETA DE RESÍDUOS SÓLIDOS, COM DISPONIBILIZAÇÃO DE MÃO DE OBRA E FORNECIMENTO DE MATERIAIS E EQUIPAMENTOS NECESSÁRIOS, VISANDO ATENDER AS NECESSIDADES DO MUNICÍPIO DE JAGUARARI (SEDE, DISTRITOS E POVOADOS), CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS ESTABELECIDAS NESTE EDITAL E SEUS ANEXOS.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>PREGÃO ELETRÔNICO Nº PE009-2025</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>ABERTO</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>MENOR PREÇO GLOBAL</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>08/08/2025 ÀS 08:00H</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>HTTPS://WWW.EMUNICIPIO.COM.BR/JAGUARARI/MODALIDADE/INDEX.PHP</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>R$ 978.024,77 (MENSAL) R$ 11.736.297,24 (ANUAL)</t>
         </is>

--- a/INF032-Codes/dados_resumos.xlsx
+++ b/INF032-Codes/dados_resumos.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>DELTA</t>
+          <t>QUAD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -535,42 +535,42 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>CRISTALINA</t>
+          <t>PREFEITURA MUNICIPAL DA BARRA - BAHIA</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA PRESTAÇÃO DE SERVIÇOS DE RECEBIMENTO E DISPOSIÇÃO FINAL DE RESÍDUOS SÓLIDOS URBANOS, DESTINADO A ATENDER AS NECESSIDADES DO MUNICÍPIO DE CRISTALINA.</t>
+          <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA ESPECIALIZADA PARA A PRESTAÇÃO DE SERVIÇOS CONTÍNUOS DE REFORMA PREVENTIVA E CORRETIVA EM PRÉDIOS PÚBLICOS PERTENCENTES ÀS DIVERSAS SECRETARIAS MUNICIPAIS DESTE MUNICÍPIO, BEM COMO PARA A MANUTENÇÃO E RECUPERAÇÃO DA INFRAESTRUTURA URBANA E DE VIAS PÚBLICAS, TANTO NA SEDE QUANTO NA ZONA RURAL DO MUNICÍPIO DE BARRA/BA.</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>PREGÃO ELETRÔNICO N° 023/2025</t>
+          <t>CONCORRÊNCIA ELETRÔNICA Nº 003/2025</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>ABERTO</t>
+          <t>FECHADO E ABERTO</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>MENOR PREÇO GLOBAL</t>
+          <t>MENOR PREÇO POR LOTE</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>08/08/2025 09:00</t>
+          <t>07/08/2025 09:00</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>COMPRAS PUBLICAS</t>
+          <t>BNC</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>R$ 710.705,00</t>
+          <t>SIGILOSO</t>
         </is>
       </c>
     </row>
@@ -580,32 +580,32 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CIA FLORA</t>
+          <t>DELTA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>08/08 AS 9:00</t>
+          <t>08/08/2025 09:00</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>JACAREI – SP</t>
+          <t>CRISTALINA</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>REGISTRO DE PREÇO PARA CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE ROÇADA, CAPINA, PODA, FORNECIMENTO E PLANTIO DE GRAMAS EM PLACAS E LIMPEZA GERAL DAS ÁREAS COM COLETA, TRANSPORTE E DESTINAÇÃO FINAL CORRETA E ADEQUADA DOS RESÍDUOS PROVENIENTES DESTES SERVIÇOS, COM FORNECIMENTO DE MÃO-DE-OBRA, FERRAMENTAS, INSUMOS E EQUIPAMENTOS NECESSÁRIOS À EXECUÇÃO DOS SERVIÇOS, DECORRENTE DA SOLICITAÇÃO DE REGISTRO (SR) 067/2025, CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS DESTE EDITAL E ANEXOS.</t>
+          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA PARA PRESTAÇÃO DE SERVIÇOS DE RECEBIMENTO E DISPOSIÇÃO FINAL DE RESÍDUOS SÓLIDOS URBANOS, DESTINADO A ATENDER AS NECESSIDADES DO MUNICÍPIO DE CRISTALINA.</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>PREGÃO ELETRÔNICO Nº 038/2025 (UASG 926641)</t>
+          <t>PREGÃO ELETRÔNICO N° 023/2025</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>ABERTO E FECHADO</t>
+          <t>ABERTO</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -615,17 +615,17 @@
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08/08 AS 9:00</t>
+          <t>08/08/2025 09:00</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>COMPRAS.GOV</t>
+          <t>COMPRAS PUBLICAS</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>R$ 2.629.506,35</t>
+          <t>R$ 710.705,00</t>
         </is>
       </c>
     </row>
@@ -635,27 +635,27 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MALI</t>
+          <t>CIA FLORA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>08/08/2025 09:00</t>
+          <t>08/08 AS 9:00</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>MUNICIPIO DE TUCANO</t>
+          <t>JACAREI – SP</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>AQUISIÇÃO DE GÊNEROS ALIMENTÍCIOS COM ENTREGA DIÁRIA PARA ATENDER AS DIVERSAS SECRETARIAS DO MUNICÍPIO DE TUCANO.</t>
+          <t>REGISTRO DE PREÇO PARA CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE ROÇADA, CAPINA, PODA, FORNECIMENTO E PLANTIO DE GRAMAS EM PLACAS E LIMPEZA GERAL DAS ÁREAS COM COLETA, TRANSPORTE E DESTINAÇÃO FINAL CORRETA E ADEQUADA DOS RESÍDUOS PROVENIENTES DESTES SERVIÇOS, COM FORNECIMENTO DE MÃO-DE-OBRA, FERRAMENTAS, INSUMOS E EQUIPAMENTOS NECESSÁRIOS À EXECUÇÃO DOS SERVIÇOS, DECORRENTE DA SOLICITAÇÃO DE REGISTRO (SR) 067/2025, CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS DESTE EDITAL E ANEXOS.</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>PREGÃO ELETRÔNICO SRP Nº 036/2025</t>
+          <t>PREGÃO ELETRÔNICO Nº 038/2025 (UASG 926641)</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>MENOR PREÇO POR LOTE</t>
+          <t>MENOR PREÇO GLOBAL</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>07/08/2025 09:00</t>
+          <t>08/08 AS 9:00</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>BLL</t>
+          <t>COMPRAS.GOV</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>R$ 8.300.212,49</t>
+          <t>R$ 2.629.506,35</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>QUAD</t>
+          <t>MALI</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -700,22 +700,22 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>PREFEITURA MUNICIPAL DA BARRA - BAHIA</t>
+          <t>MUNICIPIO DE TUCANO</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>CONTRATAÇÃO DE EMPRESA DE ENGENHARIA ESPECIALIZADA PARA A PRESTAÇÃO DE SERVIÇOS CONTÍNUOS DE REFORMA PREVENTIVA E CORRETIVA EM PRÉDIOS PÚBLICOS PERTENCENTES ÀS DIVERSAS SECRETARIAS MUNICIPAIS DESTE MUNICÍPIO, BEM COMO PARA A MANUTENÇÃO E RECUPERAÇÃO DA INFRAESTRUTURA URBANA E DE VIAS PÚBLICAS, TANTO NA SEDE QUANTO NA ZONA RURAL DO MUNICÍPIO DE BARRA/BA.</t>
+          <t>AQUISIÇÃO DE GÊNEROS ALIMENTÍCIOS COM ENTREGA DIÁRIA PARA ATENDER AS DIVERSAS SECRETARIAS DO MUNICÍPIO DE TUCANO.</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>CONCORRÊNCIA ELETRÔNICA Nº 003/2025</t>
+          <t>PREGÃO ELETRÔNICO SRP Nº 036/2025</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>FECHADO E ABERTO</t>
+          <t>ABERTO E FECHADO</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>BNC</t>
+          <t>BLL</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>SIGILOSO</t>
+          <t>R$ 8.300.212,49</t>
         </is>
       </c>
     </row>
@@ -901,6 +901,116 @@
       <c r="K8" s="3" t="inlineStr">
         <is>
           <t>R$ 978.024,77 (MENSAL) R$ 11.736.297,24 (ANUAL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>Cabeçalho não encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>Sem informação</t>
         </is>
       </c>
     </row>

--- a/INF032-Codes/dados_resumos.xlsx
+++ b/INF032-Codes/dados_resumos.xlsx
@@ -635,27 +635,27 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CIA FLORA</t>
+          <t>GENIARQ</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>08/08 AS 9:00</t>
+          <t>08/08/2025 09:00</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>JACAREI – SP</t>
+          <t>FUNDO MUNICIPAL DE SAUDE DE SÃO VICENTE FÉRRER – PE</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>REGISTRO DE PREÇO PARA CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE ROÇADA, CAPINA, PODA, FORNECIMENTO E PLANTIO DE GRAMAS EM PLACAS E LIMPEZA GERAL DAS ÁREAS COM COLETA, TRANSPORTE E DESTINAÇÃO FINAL CORRETA E ADEQUADA DOS RESÍDUOS PROVENIENTES DESTES SERVIÇOS, COM FORNECIMENTO DE MÃO-DE-OBRA, FERRAMENTAS, INSUMOS E EQUIPAMENTOS NECESSÁRIOS À EXECUÇÃO DOS SERVIÇOS, DECORRENTE DA SOLICITAÇÃO DE REGISTRO (SR) 067/2025, CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS DESTE EDITAL E ANEXOS.</t>
+          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA EM ENGENHARIA PARA A AMPLIAÇÃO DE UNIDADE DE ATENÇÃO ESPECIALIZADA EM SAÚDE - UNIDADE MISTA EDSON REGIS DE CARVALHO (UMERC) DO MUNICÍPIO DE SÃO VICENTE FÉRRER - PE, CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS ESTABELECIDAS NESTE EDITAL E SEUS ANEXOS.</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>PREGÃO ELETRÔNICO Nº 038/2025 (UASG 926641)</t>
+          <t>CONCORRÊNCIA Nº 02/2025</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08/08 AS 9:00</t>
+          <t>08/08/2025 09:30</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>COMPRAS.GOV</t>
+          <t>BNC</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>R$ 2.629.506,35</t>
+          <t>R$ 801.600,6500</t>
         </is>
       </c>
     </row>
@@ -745,32 +745,32 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>GENIARQ</t>
+          <t>DELTA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>05/08/2025 09:30</t>
+          <t>11/08 AS 8:00</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>FUNDO MUNICIPAL DE ASSISTÊNCIA SOCIAL DE SÃO VICENTE FÉRRER – PE</t>
+          <t>MUNICÍPIO DE JAGUARARI/BA</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>REFORMA DE ÁREA DESATIVADA UNIDADE DE SAÚDE NINA LEITÃO PARA INSTALAÇÃO DA COZINHA COMUNITÁRIA, CENTRO ADMINISTRATIVO E ESPAÇO PARA SERVIÇO DE CONVIVENCIA E FORTALEMENTO DE VINCULOS PARA PESSOA IDOSA NO SITIO CHÃ DO ESQUECIDO, ZONA RURAL DO MUNICIPIO DE SÃO VICENTE FERRER-PE, CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS ESTABELECIDAS NESTE EDITAL E SEUS ANEXOS.</t>
+          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE LIMPEZA PÚBLICA E COLETA DE RESÍDUOS SÓLIDOS, COM DISPONIBILIZAÇÃO DE MÃO DE OBRA E FORNECIMENTO DE MATERIAIS E EQUIPAMENTOS NECESSÁRIOS, VISANDO ATENDER AS NECESSIDADES DO MUNICÍPIO DE JAGUARARI (SEDE, DISTRITOS E POVOADOS), CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS ESTABELECIDAS NESTE EDITAL E SEUS ANEXOS.</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>CONCORRÊNCIA Nº 03/2025</t>
+          <t>PREGÃO ELETRÔNICO Nº PE009-2025</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>ABERTO E FECHADO</t>
+          <t>ABERTO</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>05/08/2025 09:00</t>
+          <t>08/08/2025 ÀS 08:00H</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>BNC</t>
+          <t>HTTPS://WWW.EMUNICIPIO.COM.BR/JAGUARARI/MODALIDADE/INDEX.PHP</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>R$ 239.357,0100</t>
+          <t>R$ 978.024,77 (MENSAL) R$ 11.736.297,24 (ANUAL)</t>
         </is>
       </c>
     </row>
@@ -855,52 +855,52 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DELTA</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11/08 AS 8:00</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>MUNICÍPIO DE JAGUARARI/BA</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>CONTRATAÇÃO DE EMPRESA ESPECIALIZADA NA PRESTAÇÃO DE SERVIÇOS DE LIMPEZA PÚBLICA E COLETA DE RESÍDUOS SÓLIDOS, COM DISPONIBILIZAÇÃO DE MÃO DE OBRA E FORNECIMENTO DE MATERIAIS E EQUIPAMENTOS NECESSÁRIOS, VISANDO ATENDER AS NECESSIDADES DO MUNICÍPIO DE JAGUARARI (SEDE, DISTRITOS E POVOADOS), CONFORME CONDIÇÕES, QUANTIDADES E EXIGÊNCIAS ESTABELECIDAS NESTE EDITAL E SEUS ANEXOS.</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>PREGÃO ELETRÔNICO Nº PE009-2025</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>ABERTO</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>MENOR PREÇO GLOBAL</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08/08/2025 ÀS 08:00H</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>HTTPS://WWW.EMUNICIPIO.COM.BR/JAGUARARI/MODALIDADE/INDEX.PHP</t>
+          <t>Sem informação</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>R$ 978.024,77 (MENSAL) R$ 11.736.297,24 (ANUAL)</t>
+          <t>Sem informação</t>
         </is>
       </c>
     </row>
